--- a/reports/gridsearch_IPS/result_under.xlsx
+++ b/reports/gridsearch_IPS/result_under.xlsx
@@ -1,42 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ml\xgboost-main\reports\gridsearch_IPS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29420" windowHeight="11350"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -375,29 +420,2800 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:MI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DT_NM</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_10</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_100</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_11</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_12</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_13</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_14</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_15</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_16</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_17</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_18</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_19</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_20</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_21</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_22</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_23</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_24</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_25</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_26</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_27</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_28</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_29</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_3</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_30</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_31</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_32</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_33</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_34</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_35</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_36</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_37</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_38</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_39</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_40</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_41</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_42</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_43</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_44</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_45</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_46</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_47</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_48</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_49</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_5</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_50</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_51</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_52</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_53</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_54</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_55</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_56</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_57</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_58</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_59</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_6</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_60</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_61</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_62</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_63</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_64</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_65</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_66</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_67</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_68</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_69</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_7</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_70</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_71</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_72</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_73</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_74</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_75</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_76</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_77</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_78</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_79</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_8</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_80</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_81</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_82</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_83</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_84</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_85</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_86</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_87</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_88</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_89</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_9</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_90</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_91</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_92</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_93</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_94</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_95</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_96</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_97</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_98</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_99</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>LR_NM</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_1</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_10</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_100</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_11</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_12</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_13</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_14</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_15</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_16</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_17</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_18</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_19</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_2</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_20</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_21</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_22</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_23</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_24</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_25</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_26</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_27</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_28</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_29</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_3</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_30</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_31</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_32</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_33</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_34</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_35</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_36</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_37</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_38</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_39</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_4</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_40</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_41</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_42</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_43</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_44</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_45</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_46</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_47</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_48</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_49</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_5</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_50</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_51</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_52</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_53</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_54</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_55</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_56</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_57</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_58</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_59</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_6</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_60</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_61</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_62</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_63</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_64</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_65</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_66</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_67</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_68</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_69</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_7</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_70</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_71</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_72</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_73</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_74</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_75</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_76</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_77</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_78</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_79</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_8</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_80</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_81</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_82</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_83</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_84</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_85</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_86</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_87</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_88</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_89</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_9</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_90</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_91</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_92</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_93</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_94</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_95</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_96</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_97</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_98</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_99</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>RF_NM</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_1</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_10</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_100</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_11</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_12</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_13</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_14</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_15</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_16</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_17</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_18</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_19</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_2</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_20</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_21</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_22</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_23</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_24</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_25</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_26</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_27</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_28</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_29</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_3</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_30</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_31</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_32</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_33</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_34</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_35</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_36</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_37</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_38</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_39</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_4</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_40</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_41</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_42</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_43</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_44</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_45</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_46</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_47</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_48</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_49</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_5</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_50</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_51</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_52</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_53</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_54</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_55</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_56</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_57</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_58</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_59</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_6</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_60</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_61</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_62</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_63</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_64</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_65</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_66</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_67</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_68</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_69</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_7</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_70</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_71</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_72</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_73</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_74</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_75</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_76</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_77</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_78</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_79</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_8</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_80</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_81</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_82</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_83</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_84</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_85</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_86</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_87</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_88</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_89</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_9</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_90</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_91</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_92</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_93</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_94</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_95</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_96</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_97</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_98</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_99</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_1</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_10</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_11</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_12</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_13</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_14</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_15</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_16</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_17</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_18</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_19</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_2</t>
+        </is>
+      </c>
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_20</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_21</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_22</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_23</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_24</t>
+        </is>
+      </c>
+      <c r="LJ1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_25</t>
+        </is>
+      </c>
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_26</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_27</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_28</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_29</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_3</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_30</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_31</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_32</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_33</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_34</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_35</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_36</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_37</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_38</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_39</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_4</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_40</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_41</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_42</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_43</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_5</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_6</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_7</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_8</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_9</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.999504405211184</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9991720480346077</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9986771354638273</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9990077171473921</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9983462830662386</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9990082631069501</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9980191121036551</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9991720475813443</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9993384287442628</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9985118477937738</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9991723207824048</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9988446083526252</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9993380210944256</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9991739629628871</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.9986772706034645</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.9978505384422135</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9986778147634039</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9986774111631951</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.9986771352380377</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.9981811346034221</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.9993362324120521</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.999006759231673</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.9986787765170266</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.9988409197067927</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.9993367865671617</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.9991709486295308</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.9983471038253736</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.9990068964006158</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.9991720471246959</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.9991736888519146</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.9988463705752778</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.9991730050443568</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.9985107547468359</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.9988420145707337</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.9991723169084459</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.9985104808616496</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.9988428375872127</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.9990085329177874</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.9985123758988431</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.9988420125397516</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.9996691478298944</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.9991723210087553</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.9988399595213655</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.9995037214047533</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.9991712245648653</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.9986760405976322</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.9995031740893354</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.9981844074355546</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.9990079910314515</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.9993374730965734</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.9986757682980165</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.9988418780746409</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.9985138913193436</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.9993388429752066</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.9988424263061704</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.9991714989038817</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.999008126843411</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.9991720471258265</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.9988422900454443</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.9991745080215217</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.9986763181140068</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.9988433842247006</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.9991724590876098</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.9996680440771349</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.9990070324349913</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.9990062103284243</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.999009489267554</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.999170946581095</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.9983509107148498</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.998347241220104</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.998512530023039</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.9988426983855941</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.9996691480562448</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.9991732784757155</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.9983468301671019</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.9988427001930429</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.9988436553981526</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.998182090484228</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.998510617351543</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.9995034477470444</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.9995037220843672</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.9988420170645419</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.99868040900241</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.9990089469122575</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.998843929509125</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.9986782280687236</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.9981823598485567</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.9986790456650685</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.99933815917046</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.9990088101965782</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.9991721845233739</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.9980144734319971</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.9981861743798284</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.9993374735520948</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.9988428369081594</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.9986771370499721</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.9991720482615207</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.9988414699749122</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.9985112988922111</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.999007169378148</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.9985121207746797</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.9939721194578954</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.9981787999919867</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.9962190379120175</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.9973535690123454</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.9973547933079786</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.9981783932617081</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.997850819104564</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.9986752196267668</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.9976862134278293</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.9978474030211977</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.9988418812548272</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.9978490460980636</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.9976800571159335</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.9978490476802646</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.9985123912662637</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.9978495968160782</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.9981788000021752</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.9980152896590351</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.9983460041922676</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.9980125569141844</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.998013640147714</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.9981803109028096</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.9966928334612651</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.9975170997464551</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.9978474023285955</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.9976847124889939</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.9985102069775902</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.9978509553641276</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.9970240887536435</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.9978500044794215</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.9986761770875103</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.9978468531956228</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.9980137880269903</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.997189084758394</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.9981801721505335</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.9981783912251145</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.9985119851913172</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.9980143337698181</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.9983454620829738</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.9981796282399701</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.9986750799498967</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.997848360024177</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.9978491753469274</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.9985089672216982</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.9971880153598274</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.9981804487558857</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0.997687302005507</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.997684303040151</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.9975170997464587</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.9983460119028986</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.9980151588262622</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.9986750747477652</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.9978495904844017</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.9978471241286536</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.9980165115194835</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.9981811189822505</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.9983442309645083</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.9981818127583603</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.9983453287738314</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0.9975226902161495</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.9976797738706102</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0.9976856692802839</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.9983451911538774</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0.9981805672876221</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.998178804996582</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0.9985091066710833</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.9981764642137888</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0.9985122470910269</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.9978483600303824</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.9975201061546353</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.998012278028982</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.99801282875149</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.9971910297066969</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.9985132156335519</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.9978542368139731</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.9976795098095659</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.9978480863568722</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.9980132348038762</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.9983450555710757</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.9983457348448601</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.9986741170318908</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.9978475326968903</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.998177021794117</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.9978551744383599</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0.9980159766372058</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0.9976874197554613</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>0.9980157032035931</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.998014335580603</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>0.9983439559526402</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0.9986764368527992</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0.9978508168601283</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.9978494280204684</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>0.9983431333843598</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0.9985115593740286</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>0.9986759054720414</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0.9978509603359985</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>0.9976833460152136</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0.9981815433945999</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>0.9978483611463315</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0.9981817985125016</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>0.9981820798608034</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0.9986814982232086</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>0.999669284771924</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0.9996696944673824</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>0.9996694214876033</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0.9996696944673824</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>0.9996696944673824</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>0.9996696944673824</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>0.9996696944673824</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>0.9996694214876033</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>0.9996694214876033</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>0.9993396612388512</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>0.9995045417010735</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>0.9991750521814613</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>0.999669284771924</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>0.9996696944673824</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>0.9996696944673824</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>0.9996694214876033</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>0.9996696944673824</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>0.9995039955157257</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>0.9995049504950495</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>0.9998344370860928</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>0.9996696944673824</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>0.9998345740281224</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>0.9996696944673824</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>0.9996696944673824</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>0.9995049504950495</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>0.9996696944673824</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>0.999669284771924</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>0.9996694214876033</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>0.9995049504950495</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
